--- a/biology/Zoologie/Ithomeis_aurantiaca/Ithomeis_aurantiaca.xlsx
+++ b/biology/Zoologie/Ithomeis_aurantiaca/Ithomeis_aurantiaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ithomeis aurantiaca  est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Ithomeis.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ithomeis aurantiaca a été décrit par Henry Walter Bates en 1862[1]
-Sous-espèces
-Ithomeis aurantiaca aurantiaca
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ithomeis aurantiaca a été décrit par Henry Walter Bates en 1862
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ithomeis aurantiaca aurantiaca
 Ithomeis aurantiaca bernardi Brévignon, 1998;  présent en Guyane
 Ithomeis aurantiaca astrea (C. &amp; R. Felder, 1862); au Venezuela.
 Ithomeis aurantiaca corena (C. &amp; R. Felder, 1862);  en Colombie.
@@ -524,38 +573,74 @@
 Ithomeis aurantiaca lauronia Schaus, 1902; présent en Bolivie  et au Pérou.
 Ithomeis aurantiaca mimica Bates, 1862;  au Brésil, en Colombie et en Équateur.
 Ithomeis aurantiaca satellites Bates, 1862; présent au Brésil.
-Ithomeis aurantiaca stalachtina Bates, 1862; présent au Brésil[1].
-Nom vernaculaire
-Ithomeis aurantiaca  se nomme Glasswing Metalmark en anglais[2].
+Ithomeis aurantiaca stalachtina Bates, 1862; présent au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ithomeis aurantiaca  se nomme Glasswing Metalmark en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ithomeis_aurantiaca</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ithomeis aurantiaca  est un papillon au corps noir, au centre des ailes hyalines de couleur bleu clair argenté à veines noires. La large bordure noire des ailes est marquée d'une ligne submarginale orange plus ou moins large.
 Le revers présente la même ornementation.
@@ -563,63 +648,137 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ithomeis_aurantiaca</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ithomeis_aurantiaca</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ithomeis aurantiaca  est présent en Guyane, au Brésil, en Colombie, au Venezuela, en Équateur et au Pérou[1].
-Biotope
-Il réside dans la forêt humide amazonienne[2].
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ithomeis aurantiaca  est présent en Guyane, au Brésil, en Colombie, au Venezuela, en Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ithomeis_aurantiaca</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
